--- a/server/excel_mapping/Oobleck30Apr2019v2.xlsx
+++ b/server/excel_mapping/Oobleck30Apr2019v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patelbhp\Desktop\GDCMVS\server\excel_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927896DC-BE34-45B5-B5A7-DD06024FB89F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACD8719-96B4-4CFC-95AE-B385B87EB881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8172" xr2:uid="{A5ED0499-E8D8-4A38-AB58-DC2D024E5119}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="578">
   <si>
     <t>Category</t>
   </si>
@@ -1731,6 +1731,42 @@
   </si>
   <si>
     <t>run_metadata</t>
+  </si>
+  <si>
+    <t>Hypospadias</t>
+  </si>
+  <si>
+    <t>C40341</t>
+  </si>
+  <si>
+    <t>molecular_consequence</t>
+  </si>
+  <si>
+    <t>Frameshift Variant</t>
+  </si>
+  <si>
+    <t>Non-coding Transcript Exon Variant</t>
+  </si>
+  <si>
+    <t>Non-coding Transcript Variant</t>
+  </si>
+  <si>
+    <t>Frameshift Mutation</t>
+  </si>
+  <si>
+    <t>Non-Coding Gene Exon Mutation</t>
+  </si>
+  <si>
+    <t>Non-Coding Gene Mutation</t>
+  </si>
+  <si>
+    <t>C17354</t>
+  </si>
+  <si>
+    <t>C148645</t>
+  </si>
+  <si>
+    <t>C148644</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1796,6 +1832,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2110,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E96C89-91E8-4BCE-B462-087642410F60}">
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6063,7 +6114,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>186</v>
       </c>
@@ -6071,16 +6122,16 @@
         <v>426</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>214</v>
+        <v>566</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="F198" s="10" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -6088,19 +6139,19 @@
         <v>186</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>185</v>
+        <v>213</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -6111,16 +6162,16 @@
         <v>457</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>460</v>
+        <v>184</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>462</v>
+        <v>184</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>461</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -6134,13 +6185,13 @@
         <v>459</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -6154,13 +6205,13 @@
         <v>459</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -6174,13 +6225,13 @@
         <v>459</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -6194,13 +6245,13 @@
         <v>459</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -6214,13 +6265,13 @@
         <v>459</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -6234,13 +6285,13 @@
         <v>459</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -6251,16 +6302,16 @@
         <v>457</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -6274,13 +6325,13 @@
         <v>481</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>259</v>
+        <v>482</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>259</v>
+        <v>484</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>260</v>
+        <v>483</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -6291,16 +6342,16 @@
         <v>457</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>488</v>
+        <v>259</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>487</v>
+        <v>260</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -6314,13 +6365,13 @@
         <v>485</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -6334,13 +6385,13 @@
         <v>485</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>185</v>
+        <v>489</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -6348,79 +6399,79 @@
         <v>186</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>503</v>
+        <v>184</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A213" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="E213" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="F213" s="20" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B214" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="D214" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="E214" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="F214" s="21" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C215" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="D215" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="E215" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="F215" s="22" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -6431,16 +6482,16 @@
         <v>492</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>45</v>
+        <v>494</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>47</v>
+        <v>494</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>46</v>
+        <v>495</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -6454,16 +6505,16 @@
         <v>496</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>186</v>
       </c>
@@ -6471,16 +6522,16 @@
         <v>492</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>509</v>
+        <v>500</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -6491,16 +6542,16 @@
         <v>492</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>512</v>
+        <v>502</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -6511,96 +6562,96 @@
         <v>492</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>514</v>
+        <v>45</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>514</v>
+        <v>47</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>515</v>
+        <v>46</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>516</v>
+        <v>186</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>516</v>
+        <v>186</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>520</v>
+        <v>508</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>516</v>
+        <v>186</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>516</v>
+        <v>186</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -6608,39 +6659,39 @@
         <v>516</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>516</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>518</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>534</v>
+        <v>519</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -6648,19 +6699,19 @@
         <v>516</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>523</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -6668,19 +6719,19 @@
         <v>516</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>541</v>
+        <v>528</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -6688,39 +6739,39 @@
         <v>516</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>516</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>544</v>
+        <v>533</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -6728,19 +6779,19 @@
         <v>516</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>548</v>
+        <v>538</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -6748,19 +6799,19 @@
         <v>516</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>551</v>
+        <v>540</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -6768,39 +6819,39 @@
         <v>516</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E233" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>516</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>534</v>
+        <v>543</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -6808,19 +6859,19 @@
         <v>516</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>537</v>
+        <v>549</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -6828,19 +6879,19 @@
         <v>516</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>523</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -6848,99 +6899,99 @@
         <v>516</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>541</v>
+        <v>550</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>518</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="F239" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>523</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>561</v>
+        <v>540</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -6948,19 +6999,19 @@
         <v>558</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>518</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -6968,28 +7019,108 @@
         <v>558</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>518</v>
       </c>
       <c r="D243" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E243" s="4" t="s">
+      <c r="E245" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="F243" s="4" t="s">
+      <c r="F245" s="4" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
+    <row r="246" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{27E23E65-2A02-4384-BC8C-4AAB62EB4862}"/>
